--- a/data_processed/20250812/BTCUSDVOLSURFACE_20250812.xlsx
+++ b/data_processed/20250812/BTCUSDVOLSURFACE_20250812.xlsx
@@ -831,7 +831,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8634,7 +8634,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41005,7 +41005,7 @@
       </c>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41229,7 +41229,7 @@
       </c>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41287,7 +41287,7 @@
       </c>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41345,7 +41345,7 @@
       </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41428,7 +41428,7 @@
       </c>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41486,7 +41486,7 @@
       </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41569,7 +41569,7 @@
       </c>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250812/BTCUSDVOLSURFACE_20250812.xlsx
+++ b/data_processed/20250812/BTCUSDVOLSURFACE_20250812.xlsx
@@ -19410,7 +19410,7 @@
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37115,7 +37115,7 @@
       </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
